--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE1E9864-1CD7-49FC-BC4C-3DE3F523B7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97745D76-E62D-4B18-B810-81E4E47FAD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UNF" sheetId="1" r:id="rId1"/>
+    <sheet name="1NF" sheetId="2" r:id="rId2"/>
+    <sheet name="2NF" sheetId="3" r:id="rId3"/>
+    <sheet name="3NF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +38,320 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="102">
+  <si>
+    <t>Table Type</t>
+  </si>
+  <si>
+    <t>Total People Reserved</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Menu Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Menu Quantity</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Reservation Status</t>
+  </si>
+  <si>
+    <t>Table Quantity</t>
+  </si>
+  <si>
+    <t>Origin Location</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Characteristic / Description</t>
+  </si>
+  <si>
+    <t>Restaurant Type</t>
+  </si>
+  <si>
+    <t>LaperAh Tanjung Duren</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>Nobita</t>
+  </si>
+  <si>
+    <t>Wagyu A5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>LaperAh Tunjungan Plaza</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Customer's Name</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Rawon</t>
+  </si>
+  <si>
+    <t>Nasi Goreng Kampung</t>
+  </si>
+  <si>
+    <t>Ayang Goreng</t>
+  </si>
+  <si>
+    <t>Banyuwangi</t>
+  </si>
+  <si>
+    <t>Rawon adalah sup tradisional Jawa Timur yang kaya rempah, berwarna hitam pekat karena penggunaan kluwek, dengan cita rasa gurih, pedas, dan lezat.</t>
+  </si>
+  <si>
+    <t>Di lereng pegunungan Jepang, Wagyu A5 terkenal dengan marbling luar biasa, tekstur lembut seperti awan, dan cita rasa mentega yang melumer di lidah, memberikan pengalaman kuliner mewah yang tak terlupakan.</t>
+  </si>
+  <si>
+    <t>Padang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaperAh Bukittinggi </t>
+  </si>
+  <si>
+    <t>Jarjit</t>
+  </si>
+  <si>
+    <t>Teguh</t>
+  </si>
+  <si>
+    <t>Rendang</t>
+  </si>
+  <si>
+    <t>Sate Padang</t>
+  </si>
+  <si>
+    <t>Padang Barat</t>
+  </si>
+  <si>
+    <t>Padang Utara</t>
+  </si>
+  <si>
+    <t>Rendang, hidangan khas Padang, ditandai oleh daging yang empuk dimasak secara perlahan dengan campuran santan dan rempah-rempah yang kaya, menghasilkan sensasi rasa dan aroma yang lezat.</t>
+  </si>
+  <si>
+    <t>Sate Padang, terkenal dengan cita rasa pedas dan bumbu kacang yang kaya, merupakan hidangan sate yang berasal dari Padang, Sumatra Barat, Indonesia.</t>
+  </si>
+  <si>
+    <t>LaperAh Alun-alun Bandung</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Mie Ayam</t>
+  </si>
+  <si>
+    <t>Sate Kambing</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>OD001</t>
+  </si>
+  <si>
+    <t>OD002</t>
+  </si>
+  <si>
+    <t>OD003</t>
+  </si>
+  <si>
+    <t>OD004</t>
+  </si>
+  <si>
+    <t>OrderID (PK) (FK)</t>
+  </si>
+  <si>
+    <t>MenuID (PK) (FK)</t>
+  </si>
+  <si>
+    <t>MN001</t>
+  </si>
+  <si>
+    <t>MN002</t>
+  </si>
+  <si>
+    <t>MN003</t>
+  </si>
+  <si>
+    <t>MN004</t>
+  </si>
+  <si>
+    <t>MN005</t>
+  </si>
+  <si>
+    <t>MN006</t>
+  </si>
+  <si>
+    <t>MN007</t>
+  </si>
+  <si>
+    <t>MN008</t>
+  </si>
+  <si>
+    <t>TransactionHeader</t>
+  </si>
+  <si>
+    <t>MrMenu</t>
+  </si>
+  <si>
+    <t>TransactionDetail</t>
+  </si>
+  <si>
+    <t>OrderID (PK)</t>
+  </si>
+  <si>
+    <t>MrLocation</t>
+  </si>
+  <si>
+    <t>EM001</t>
+  </si>
+  <si>
+    <t>EM002</t>
+  </si>
+  <si>
+    <t>EM003</t>
+  </si>
+  <si>
+    <t>EM004</t>
+  </si>
+  <si>
+    <t>MrEmployee</t>
+  </si>
+  <si>
+    <t>AvailableOn</t>
+  </si>
+  <si>
+    <t>Restaurant +B2:R2Invoice</t>
+  </si>
+  <si>
+    <t>MenuID (PK)</t>
+  </si>
+  <si>
+    <t>TT001</t>
+  </si>
+  <si>
+    <t>TT002</t>
+  </si>
+  <si>
+    <t>TT003</t>
+  </si>
+  <si>
+    <t>MrTableType</t>
+  </si>
+  <si>
+    <t>TableTypeID (PK)</t>
+  </si>
+  <si>
+    <t>TableTypeID (FK)</t>
+  </si>
+  <si>
+    <t>Max Table Load</t>
+  </si>
+  <si>
+    <t>EmployeeID (PK)</t>
+  </si>
+  <si>
+    <t>EmployeeID (FK)</t>
+  </si>
+  <si>
+    <t>BranchID (FK)</t>
+  </si>
+  <si>
+    <t>BR001</t>
+  </si>
+  <si>
+    <t>BR002</t>
+  </si>
+  <si>
+    <t>BR003</t>
+  </si>
+  <si>
+    <t>BR004</t>
+  </si>
+  <si>
+    <t>BranchID (PK)</t>
+  </si>
+  <si>
+    <t>MrBranch</t>
+  </si>
+  <si>
+    <t>LocationID (FK)</t>
+  </si>
+  <si>
+    <t>LI001</t>
+  </si>
+  <si>
+    <t>LI002</t>
+  </si>
+  <si>
+    <t>LI003</t>
+  </si>
+  <si>
+    <t>LI004</t>
+  </si>
+  <si>
+    <t>LocationID (PK)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +359,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -62,12 +408,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +874,2349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2319B30-2675-4DDB-92EA-94A7A14FC08F}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>250000</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8">
+        <v>8</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>80000</v>
+      </c>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="9">
+        <v>17</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="3">
+        <v>28</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>30000</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>35000</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07B70A-99B4-47B8-881F-63A149D8C03F}">
+  <dimension ref="B2:S11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="5">
+        <v>250000</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="5">
+        <v>80000</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="3">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="5">
+        <v>30000</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="3">
+        <v>4</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="5">
+        <v>35000</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:S2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D07283-676B-4F48-9B92-322057909C13}">
+  <dimension ref="B2:N22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="3" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="18">
+        <v>4</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="18">
+        <v>10</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="18">
+        <v>10</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="18">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="5">
+        <v>35000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
+  <dimension ref="B2:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="F20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="F26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="J26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97745D76-E62D-4B18-B810-81E4E47FAD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DE6BE-DA77-45E8-8045-841EDA7AFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="102">
   <si>
     <t>Table Type</t>
   </si>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,6 +517,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,13 +534,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,7 +883,7 @@
   <dimension ref="B2:R11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C5" sqref="C5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +900,7 @@
     <col min="10" max="10" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
@@ -904,25 +910,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1011,8 +1017,8 @@
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>14</v>
+      <c r="M4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1031,10 +1037,10 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1064,8 +1070,8 @@
       <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
+      <c r="M5" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
@@ -1084,8 +1090,8 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="9" t="s">
@@ -1098,16 +1104,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>8</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="M6" s="19"/>
       <c r="N6" s="3">
         <v>4</v>
       </c>
@@ -1123,22 +1127,20 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="11"/>
       <c r="L7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="M7" s="20"/>
       <c r="N7" s="3">
         <v>3</v>
       </c>
@@ -1154,7 +1156,7 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1187,8 +1189,8 @@
       <c r="L8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>36</v>
+      <c r="M8" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="N8" s="3">
         <v>4</v>
@@ -1207,7 +1209,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1220,9 +1222,7 @@
       <c r="L9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="M9" s="20"/>
       <c r="N9" s="3">
         <v>28</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1271,8 +1271,8 @@
       <c r="L10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>18</v>
+      <c r="M10" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="N10" s="3">
         <v>2</v>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1312,9 +1312,7 @@
       <c r="L11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="M11" s="20"/>
       <c r="N11" s="3">
         <v>4</v>
       </c>
@@ -1330,7 +1328,7 @@
       <c r="R11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="B8:B9"/>
@@ -1339,6 +1337,8 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="C8:C9"/>
@@ -1361,6 +1361,7 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M5:M7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,7 +1373,7 @@
   <dimension ref="B2:S11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N4" sqref="N4:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1390,7 +1391,7 @@
     <col min="11" max="11" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -1400,26 +1401,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1455,7 +1456,7 @@
       <c r="L3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1514,8 +1515,8 @@
       <c r="M4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>14</v>
+      <c r="N4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -1570,8 +1571,8 @@
       <c r="M5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>21</v>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -1626,8 +1627,8 @@
       <c r="M6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>18</v>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="O6" s="3">
         <v>4</v>
@@ -1682,8 +1683,8 @@
       <c r="M7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>18</v>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="O7" s="3">
         <v>3</v>
@@ -1738,8 +1739,8 @@
       <c r="M8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>36</v>
+      <c r="N8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="O8" s="3">
         <v>4</v>
@@ -1794,8 +1795,8 @@
       <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>36</v>
+      <c r="N9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="O9" s="3">
         <v>28</v>
@@ -1850,8 +1851,8 @@
       <c r="M10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>18</v>
+      <c r="N10" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="O10" s="3">
         <v>2</v>
@@ -1906,8 +1907,8 @@
       <c r="M11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>18</v>
+      <c r="N11" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -1939,7 +1940,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G18"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1953,10 +1954,10 @@
     <col min="8" max="8" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -1966,16 +1967,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2004,230 +2005,254 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="18">
-        <v>2</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18">
-        <v>2</v>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="18">
-        <v>4</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="18">
-        <v>4</v>
+      <c r="I5" s="8">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="8">
         <v>10</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="8">
         <v>8</v>
       </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="8">
         <v>10</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="8">
         <v>8</v>
       </c>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="18">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="8">
         <v>17</v>
       </c>
+      <c r="N8" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="3">
         <v>28</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="8">
         <v>10</v>
       </c>
-      <c r="G9" s="18">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="8">
         <v>17</v>
       </c>
+      <c r="N9" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="18">
-        <v>2</v>
-      </c>
-      <c r="G10" s="18">
-        <v>2</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="18">
-        <v>4</v>
+      <c r="I10" s="8">
+        <v>4</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="18">
-        <v>4</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="F11" s="8">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="18">
-        <v>4</v>
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -2251,7 +2276,7 @@
       <c r="I14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2268,32 +2293,32 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>14</v>
+      <c r="K15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>18</v>
@@ -2306,32 +2331,32 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>21</v>
+      <c r="K16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>33</v>
@@ -2344,32 +2369,32 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
+      <c r="K17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>18</v>
@@ -2382,32 +2407,32 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>18</v>
@@ -2420,14 +2445,14 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>36</v>
+      <c r="K19" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>42</v>
@@ -2440,14 +2465,14 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>36</v>
+      <c r="K20" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>43</v>
@@ -2460,14 +2485,14 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>18</v>
+      <c r="K21" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>18</v>
@@ -2480,14 +2505,14 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
+      <c r="K22" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>18</v>
@@ -2513,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2525,32 +2550,32 @@
     <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.26953125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" style="2" customWidth="1"/>
     <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2562,7 +2587,7 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2576,10 +2601,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="3">
@@ -2588,21 +2613,21 @@
       <c r="E4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="3">
@@ -2611,21 +2636,21 @@
       <c r="E5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="3">
@@ -2634,21 +2659,21 @@
       <c r="E6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="3">
@@ -2657,21 +2682,21 @@
       <c r="E7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="3">
@@ -2680,21 +2705,21 @@
       <c r="E8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="18">
-        <v>2</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="3">
@@ -2703,21 +2728,21 @@
       <c r="E9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="18">
-        <v>2</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="3">
@@ -2726,21 +2751,21 @@
       <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="18">
-        <v>2</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="3">
@@ -2749,30 +2774,30 @@
       <c r="E11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
@@ -2787,7 +2812,7 @@
       <c r="F14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2804,7 +2829,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2813,14 +2838,14 @@
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>14</v>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>18</v>
@@ -2833,7 +2858,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2842,14 +2867,14 @@
       <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>21</v>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>33</v>
@@ -2862,7 +2887,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2871,14 +2896,14 @@
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>18</v>
+      <c r="H17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>18</v>
@@ -2891,7 +2916,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2900,14 +2925,14 @@
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>18</v>
+      <c r="H18" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>18</v>
@@ -2920,14 +2945,14 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>36</v>
+      <c r="H19" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>42</v>
@@ -2945,14 +2970,14 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>36</v>
+      <c r="H20" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>43</v>
@@ -2974,14 +2999,14 @@
       <c r="D21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>18</v>
+      <c r="H21" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>18</v>
@@ -2997,20 +3022,20 @@
       <c r="B22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="18">
-        <v>2</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
+      <c r="H22" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>18</v>
@@ -3026,10 +3051,10 @@
       <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="8">
         <v>4</v>
       </c>
     </row>
@@ -3037,19 +3062,19 @@
       <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="F26" s="17" t="s">
         <v>95</v>
       </c>
@@ -3094,16 +3119,16 @@
       <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3112,10 +3137,10 @@
       <c r="J28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3123,16 +3148,16 @@
       <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3141,10 +3166,10 @@
       <c r="J29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3152,16 +3177,16 @@
       <c r="B30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3170,10 +3195,10 @@
       <c r="J30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3181,16 +3206,16 @@
       <c r="B31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3199,10 +3224,10 @@
       <c r="J31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DE6BE-DA77-45E8-8045-841EDA7AFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DABBBF-31D4-4DCA-9D3A-F76083F1E383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="107">
   <si>
     <t>Table Type</t>
   </si>
@@ -275,9 +275,6 @@
     <t>AvailableOn</t>
   </si>
   <si>
-    <t>Restaurant +B2:R2Invoice</t>
-  </si>
-  <si>
     <t>MenuID (PK)</t>
   </si>
   <si>
@@ -345,6 +342,24 @@
   </si>
   <si>
     <t>LocationID (PK)</t>
+  </si>
+  <si>
+    <t>Restaurant Invoice</t>
+  </si>
+  <si>
+    <t>Reserved Time</t>
+  </si>
+  <si>
+    <t>12 Jan 2020,11:00</t>
+  </si>
+  <si>
+    <t>13 Jan 2020,11:00</t>
+  </si>
+  <si>
+    <t>15 Jan 2020,11:00</t>
+  </si>
+  <si>
+    <t>20 Jan 2020,11:00</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -443,48 +458,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,22 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,13 +500,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2319B30-2675-4DDB-92EA-94A7A14FC08F}">
-  <dimension ref="B2:R11"/>
+  <dimension ref="B2:S11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,26 +858,27 @@
     <col min="2" max="2" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>78</v>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -929,8 +896,9 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
@@ -941,49 +909,52 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
@@ -993,170 +964,178 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
       <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>1000000</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
       <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="3">
-        <v>4</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>250000</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>10</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="3">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>18</v>
+      <c r="N6" s="16"/>
+      <c r="O6" s="3">
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="5">
         <v>100000</v>
       </c>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="3" t="s">
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="3">
+      <c r="N7" s="16"/>
+      <c r="O7" s="3">
         <v>3</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="5">
         <v>80000</v>
       </c>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1166,79 +1145,83 @@
         <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>10</v>
       </c>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="9">
         <v>17</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="3">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="3">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>100000</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="3" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="3">
+      <c r="N9" s="16"/>
+      <c r="O9" s="3">
         <v>28</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>20000</v>
       </c>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1248,120 +1231,127 @@
         <v>47</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="N10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="3">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>18</v>
+      <c r="O10" s="3">
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="5">
         <v>30000</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
       <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="3">
-        <v>4</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>18</v>
+      <c r="N11" s="16"/>
+      <c r="O11" s="3">
+        <v>4</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="5">
         <v>35000</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="S11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="J6:J7"/>
+  <mergeCells count="36">
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,59 +1360,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07B70A-99B4-47B8-881F-63A149D8C03F}">
-  <dimension ref="B2:S11"/>
+  <dimension ref="B2:T11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N11"/>
+      <selection activeCell="E3" sqref="E3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
@@ -1433,52 +1425,55 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1488,53 +1483,56 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
       <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>1000000</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
@@ -1544,53 +1542,56 @@
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
       <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="3">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="3">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>250000</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1600,53 +1601,56 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>8</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>18</v>
+      <c r="P6" s="3">
+        <v>4</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="5">
         <v>100000</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
@@ -1656,53 +1660,56 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>3</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="Q7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="5">
         <v>80000</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
@@ -1713,52 +1720,55 @@
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="3">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>100000</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
@@ -1769,52 +1779,55 @@
         <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>20000</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1825,52 +1838,55 @@
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="O10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="3">
-        <v>2</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>18</v>
+      <c r="P10" s="3">
+        <v>2</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="5">
         <v>30000</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
@@ -1881,54 +1897,57 @@
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
       <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="O11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="3">
-        <v>4</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>18</v>
+      <c r="P11" s="3">
+        <v>4</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="5">
         <v>35000</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,28 +1956,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D07283-676B-4F48-9B92-322057909C13}">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="3" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
@@ -1966,19 +1986,19 @@
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
@@ -1992,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -2004,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
@@ -2029,11 +2049,8 @@
       <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2058,11 +2075,8 @@
       <c r="I5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
@@ -2087,11 +2101,8 @@
       <c r="I6" s="8">
         <v>8</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
@@ -2116,11 +2127,8 @@
       <c r="I7" s="8">
         <v>8</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
@@ -2145,11 +2153,8 @@
       <c r="I8" s="8">
         <v>17</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
@@ -2174,11 +2179,8 @@
       <c r="I9" s="8">
         <v>17</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
@@ -2203,11 +2205,8 @@
       <c r="I10" s="8">
         <v>4</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
@@ -2232,303 +2231,316 @@
       <c r="I11" s="8">
         <v>4</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="I13" s="16" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="M17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="M18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="5">
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I19" s="8" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I20" s="8" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I21" s="8" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="M21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="5">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I22" s="8" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="M22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="5">
         <v>35000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2538,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2547,8 +2559,7 @@
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -2566,18 +2577,18 @@
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
@@ -2588,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -2600,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -2623,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -2646,7 +2657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
@@ -2657,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -2669,7 +2680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -2692,7 +2703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="8">
         <v>2</v>
@@ -2715,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -2738,7 +2749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
@@ -2749,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -2761,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
@@ -2772,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -2784,105 +2795,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>250000</v>
       </c>
     </row>
@@ -2891,27 +2912,30 @@
         <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5">
         <v>100000</v>
       </c>
     </row>
@@ -2920,107 +2944,110 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="5">
         <v>80000</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="F20" s="8" t="s">
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="G20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>20000</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="5">
         <v>30000</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
@@ -3028,28 +3055,28 @@
       <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="5">
         <v>35000</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>24</v>
@@ -3060,7 +3087,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
@@ -3070,43 +3097,43 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="F26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="J26" s="17" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="F26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>2</v>
@@ -3123,19 +3150,19 @@
         <v>16</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>14</v>
@@ -3152,19 +3179,19 @@
         <v>29</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>21</v>
@@ -3181,19 +3208,19 @@
         <v>39</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>36</v>
@@ -3210,19 +3237,19 @@
         <v>49</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>47</v>
@@ -3235,11 +3262,11 @@
   <mergeCells count="7">
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="G13:L13"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DABBBF-31D4-4DCA-9D3A-F76083F1E383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B6FC5-C03C-4248-AE61-C01BC1C06623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="98">
   <si>
     <t>Table Type</t>
   </si>
@@ -200,63 +200,21 @@
     <t>OrderID</t>
   </si>
   <si>
-    <t>OD001</t>
-  </si>
-  <si>
-    <t>OD002</t>
-  </si>
-  <si>
-    <t>OD003</t>
-  </si>
-  <si>
-    <t>OD004</t>
-  </si>
-  <si>
     <t>OrderID (PK) (FK)</t>
   </si>
   <si>
     <t>MenuID (PK) (FK)</t>
   </si>
   <si>
-    <t>MN001</t>
-  </si>
-  <si>
-    <t>MN002</t>
-  </si>
-  <si>
-    <t>MN003</t>
-  </si>
-  <si>
-    <t>MN004</t>
-  </si>
-  <si>
-    <t>MN005</t>
-  </si>
-  <si>
-    <t>MN006</t>
-  </si>
-  <si>
-    <t>MN007</t>
-  </si>
-  <si>
-    <t>MN008</t>
-  </si>
-  <si>
     <t>TransactionHeader</t>
   </si>
   <si>
-    <t>MrMenu</t>
-  </si>
-  <si>
     <t>TransactionDetail</t>
   </si>
   <si>
     <t>OrderID (PK)</t>
   </si>
   <si>
-    <t>MrLocation</t>
-  </si>
-  <si>
     <t>EM001</t>
   </si>
   <si>
@@ -269,27 +227,12 @@
     <t>EM004</t>
   </si>
   <si>
-    <t>MrEmployee</t>
-  </si>
-  <si>
     <t>AvailableOn</t>
   </si>
   <si>
     <t>MenuID (PK)</t>
   </si>
   <si>
-    <t>TT001</t>
-  </si>
-  <si>
-    <t>TT002</t>
-  </si>
-  <si>
-    <t>TT003</t>
-  </si>
-  <si>
-    <t>MrTableType</t>
-  </si>
-  <si>
     <t>TableTypeID (PK)</t>
   </si>
   <si>
@@ -308,24 +251,9 @@
     <t>BranchID (FK)</t>
   </si>
   <si>
-    <t>BR001</t>
-  </si>
-  <si>
-    <t>BR002</t>
-  </si>
-  <si>
-    <t>BR003</t>
-  </si>
-  <si>
-    <t>BR004</t>
-  </si>
-  <si>
     <t>BranchID (PK)</t>
   </si>
   <si>
-    <t>MrBranch</t>
-  </si>
-  <si>
     <t>LocationID (FK)</t>
   </si>
   <si>
@@ -360,13 +288,58 @@
   </si>
   <si>
     <t>20 Jan 2020,11:00</t>
+  </si>
+  <si>
+    <t>Employee Email</t>
+  </si>
+  <si>
+    <t>Employee Password</t>
+  </si>
+  <si>
+    <t>Nobita@gmail.com</t>
+  </si>
+  <si>
+    <t>Taylor@gmail.com</t>
+  </si>
+  <si>
+    <t>Teguh@gmail.com</t>
+  </si>
+  <si>
+    <t>Eli@gmail.com</t>
+  </si>
+  <si>
+    <t>Nobita123</t>
+  </si>
+  <si>
+    <t>Taylor123</t>
+  </si>
+  <si>
+    <t>Teguh123</t>
+  </si>
+  <si>
+    <t>Eli123</t>
+  </si>
+  <si>
+    <t>MsTableType</t>
+  </si>
+  <si>
+    <t>MsMenu</t>
+  </si>
+  <si>
+    <t>MsBranch</t>
+  </si>
+  <si>
+    <t>MsEmployee</t>
+  </si>
+  <si>
+    <t>MsLocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +357,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -458,11 +439,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,32 +507,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2319B30-2675-4DDB-92EA-94A7A14FC08F}">
-  <dimension ref="B2:S11"/>
+  <dimension ref="B2:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,19 +910,590 @@
     <col min="10" max="10" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
+    <col min="13" max="13" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>101</v>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="5">
+        <v>250000</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
+        <v>8</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="3">
+        <v>4</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="3">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="5">
+        <v>80000</v>
+      </c>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="10">
+        <v>17</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="3">
+        <v>28</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="5">
+        <v>30000</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="3">
+        <v>4</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="5">
+        <v>35000</v>
+      </c>
+      <c r="U11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{75EC3DAD-CAF9-4567-BF63-D92744C263D3}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{664ADFFF-293D-4126-8194-A10E0170C534}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{4200CA64-8957-463F-B40E-DB723B4600AD}"/>
+    <hyperlink ref="M10" r:id="rId4" xr:uid="{100705F9-2E16-46AB-82D6-8086702B3182}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07B70A-99B4-47B8-881F-63A149D8C03F}">
+  <dimension ref="B2:V11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -897,10 +1512,13 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>52</v>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -909,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -918,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>8</v>
@@ -933,30 +1551,39 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>53</v>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -964,8 +1591,8 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>103</v>
+      <c r="E4" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -988,42 +1615,51 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="5">
+      <c r="U4" s="5">
         <v>1000000</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1035,205 +1671,320 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="Q5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="3">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="5">
+      <c r="U5" s="5">
         <v>250000</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="V5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3">
         <v>8</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="3">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="5">
+      <c r="U6" s="5">
         <v>100000</v>
       </c>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="3">
+      <c r="Q7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="3">
         <v>3</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="5">
+      <c r="U7" s="5">
         <v>80000</v>
       </c>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="V7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="3">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="3">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="Q8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="3">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="3">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="5">
+      <c r="U8" s="5">
         <v>100000</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="V8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="3" t="s">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="3">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="3">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="3">
+      <c r="Q9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="3">
         <v>28</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="5">
+      <c r="U9" s="5">
         <v>20000</v>
       </c>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="V9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1245,43 +1996,62 @@
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="3">
+        <v>7</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="Q10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="3">
-        <v>2</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="5">
+      <c r="U10" s="5">
         <v>30000</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="V10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1291,675 +2061,70 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="3">
+        <v>8</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="3">
-        <v>4</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="5">
+      <c r="U11" s="5">
         <v>35000</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="V11" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07B70A-99B4-47B8-881F-63A149D8C03F}">
-  <dimension ref="B2:T11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="5">
-        <v>250000</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="5">
-        <v>100000</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="5">
-        <v>80000</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="3">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="5">
-        <v>100000</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="3">
-        <v>17</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="3">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="5">
-        <v>20000</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="3">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="5">
-        <v>30000</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="5">
-        <v>35000</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:T2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{FAE17EEC-4FA7-41BD-833D-3B7A31D9F98C}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{52448410-DFB0-4AD5-89F5-739B2DB20881}"/>
+    <hyperlink ref="M6:M8" r:id="rId3" display="Taylor@gmail.com" xr:uid="{11DD8D3C-F9D5-4572-A083-B049F6386AF9}"/>
+    <hyperlink ref="M8" r:id="rId4" xr:uid="{31C76D45-8D1A-48F8-A2F9-FD25F3103992}"/>
+    <hyperlink ref="M9" r:id="rId5" xr:uid="{1734B4BE-68E5-461C-B08D-B5DDB2069E57}"/>
+    <hyperlink ref="M10" r:id="rId6" xr:uid="{EA43EFC8-BD7B-48D7-B1C1-746F53B0EED0}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{749E66FD-F78C-439A-91DD-E36982DA83D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D07283-676B-4F48-9B92-322057909C13}">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C18"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,42 +2133,42 @@
     <col min="2" max="2" width="14.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="175.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2012,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -2024,12 +2189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2050,12 +2215,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -2076,12 +2241,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>61</v>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -2102,12 +2267,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>62</v>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
@@ -2128,12 +2293,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>63</v>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -2154,12 +2319,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
       </c>
       <c r="D9" s="3">
         <v>28</v>
@@ -2180,12 +2345,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>65</v>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -2206,12 +2371,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>66</v>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
@@ -2232,343 +2397,382 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>103</v>
+      <c r="Q14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="5">
+      <c r="Q15" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>104</v>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="N16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="5">
+      <c r="Q16" s="5">
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>55</v>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="8">
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="5">
+      <c r="Q17" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="8" t="s">
-        <v>56</v>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="5">
+      <c r="Q18" s="5">
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="3" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="5">
+      <c r="Q19" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="3" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="5">
+      <c r="Q20" s="5">
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="3" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L21" s="3">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="5">
+      <c r="Q21" s="5">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="3" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L22" s="3">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="5">
+      <c r="Q22" s="5">
         <v>35000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="L13:Q13"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B13:J13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{2ECACCBB-15E5-4764-BC84-67B107FB2BA8}"/>
+    <hyperlink ref="E16:E17" r:id="rId2" display="Taylor@gmail.com" xr:uid="{BC394F64-8800-4617-9D84-076EF3E1C2C7}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{9F7CC203-5CCD-4774-B7B2-F62F4E83FEEF}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{6BB1ABDD-F12A-4A59-901A-7DE9CC4D0010}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" activeCellId="1" sqref="B33:D33 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.26953125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7265625" style="2" customWidth="1"/>
@@ -2578,28 +2782,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -2612,17 +2816,17 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>79</v>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -2635,17 +2839,17 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>80</v>
+      <c r="E5" s="3">
+        <v>2</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -2658,17 +2862,17 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>61</v>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>81</v>
+      <c r="E6" s="3">
+        <v>3</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -2681,17 +2885,17 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>62</v>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>81</v>
+      <c r="E7" s="3">
+        <v>3</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -2704,17 +2908,17 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>63</v>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>81</v>
+      <c r="E8" s="3">
+        <v>3</v>
       </c>
       <c r="F8" s="8">
         <v>2</v>
@@ -2727,17 +2931,17 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
       </c>
       <c r="D9" s="3">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>81</v>
+      <c r="E9" s="3">
+        <v>3</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -2750,17 +2954,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>65</v>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>79</v>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -2773,17 +2977,17 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>66</v>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>80</v>
+      <c r="E11" s="3">
+        <v>2</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -2796,42 +3000,42 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
@@ -2844,20 +3048,20 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>103</v>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>59</v>
+      <c r="G15" s="3">
+        <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>17</v>
@@ -2876,20 +3080,20 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>104</v>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>60</v>
+      <c r="G16" s="3">
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>30</v>
@@ -2908,20 +3112,20 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>55</v>
+      <c r="B17" s="8">
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>61</v>
+      <c r="G17" s="3">
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>31</v>
@@ -2940,20 +3144,20 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="8" t="s">
-        <v>56</v>
+      <c r="B18" s="8">
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>62</v>
+      <c r="G18" s="3">
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>32</v>
@@ -2972,8 +3176,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G19" s="8" t="s">
-        <v>63</v>
+      <c r="G19" s="3">
+        <v>5</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>40</v>
@@ -2992,13 +3196,13 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="G20" s="8" t="s">
-        <v>64</v>
+      <c r="B20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="G20" s="3">
+        <v>6</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>41</v>
@@ -3018,16 +3222,16 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>50</v>
@@ -3046,8 +3250,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>79</v>
+      <c r="B22" s="3">
+        <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
@@ -3055,8 +3259,8 @@
       <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>66</v>
+      <c r="G22" s="3">
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>51</v>
@@ -3075,8 +3279,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
-        <v>80</v>
+      <c r="B23" s="3">
+        <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>24</v>
@@ -3086,8 +3290,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>81</v>
+      <c r="B24" s="3">
+        <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
@@ -3097,178 +3301,228 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="F26" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="J26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="B26" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>12</v>
+      <c r="J27" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>72</v>
+      <c r="B28" s="3">
+        <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>73</v>
+      <c r="B29" s="3">
+        <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="3" t="s">
-        <v>74</v>
+      <c r="B30" s="3">
+        <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
-        <v>75</v>
+      <c r="B31" s="3">
+        <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G13:L13"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{0EC9790E-05BB-4111-B668-943DB446C783}"/>
+    <hyperlink ref="D29:D30" r:id="rId2" display="Taylor@gmail.com" xr:uid="{831E6A7F-2F95-4C6E-857A-80F4D4F1A37D}"/>
+    <hyperlink ref="D30" r:id="rId3" xr:uid="{2F0519A4-BCC7-48D9-B1AC-4713D60DE0EF}"/>
+    <hyperlink ref="D31" r:id="rId4" xr:uid="{D3ABD9C6-B62F-451C-926F-40ACE02FBE7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B6FC5-C03C-4248-AE61-C01BC1C06623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A478E59-705A-4A14-83DE-D1B89352E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="98">
   <si>
     <t>Table Type</t>
   </si>
@@ -510,25 +510,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -540,19 +528,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,28 +923,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1042,7 +1042,7 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="10" t="s">
         <v>85</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1071,19 +1071,19 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1095,25 +1095,25 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="11" t="s">
         <v>90</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="3">
@@ -1128,36 +1128,36 @@
       <c r="T5" s="5">
         <v>250000</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="18">
         <v>10</v>
       </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
         <v>8</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="21"/>
       <c r="O6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
@@ -1170,26 +1170,26 @@
       <c r="T6" s="5">
         <v>100000</v>
       </c>
-      <c r="U6" s="10"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="22"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="3">
         <v>3</v>
       </c>
@@ -1202,52 +1202,52 @@
       <c r="T7" s="5">
         <v>80000</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="18"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="18">
         <v>10</v>
       </c>
-      <c r="I8" s="10">
-        <v>2</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="18">
         <v>17</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="11" t="s">
         <v>91</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="19" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="3">
@@ -1262,28 +1262,28 @@
       <c r="T8" s="5">
         <v>100000</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="11"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="3">
         <v>28</v>
       </c>
@@ -1296,22 +1296,22 @@
       <c r="T9" s="5">
         <v>20000</v>
       </c>
-      <c r="U9" s="10"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="18">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1323,25 +1323,25 @@
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="18" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="11" t="s">
         <v>92</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="3">
@@ -1356,16 +1356,16 @@
       <c r="T10" s="5">
         <v>30000</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1375,17 +1375,17 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="22"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="11"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="3">
         <v>4</v>
       </c>
@@ -1398,10 +1398,36 @@
       <c r="T11" s="5">
         <v>35000</v>
       </c>
-      <c r="U11" s="10"/>
+      <c r="U11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="M10:M11"/>
@@ -1418,32 +1444,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1460,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07B70A-99B4-47B8-881F-63A149D8C03F}">
   <dimension ref="B2:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
@@ -1492,29 +1492,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1615,7 +1615,7 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="10" t="s">
         <v>85</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1680,7 +1680,7 @@
       <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -1745,7 +1745,7 @@
       <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -1810,7 +1810,7 @@
       <c r="L7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1875,7 +1875,7 @@
       <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="10" t="s">
         <v>87</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -1940,7 +1940,7 @@
       <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -2005,7 +2005,7 @@
       <c r="L10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="10" t="s">
         <v>88</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -2070,7 +2070,7 @@
       <c r="L11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="10" t="s">
         <v>88</v>
       </c>
       <c r="N11" s="3" t="s">
@@ -2121,49 +2121,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D07283-676B-4F48-9B92-322057909C13}">
-  <dimension ref="B2:Q22"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
@@ -2183,13 +2181,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2208,14 +2203,11 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2234,14 +2226,11 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2260,14 +2249,11 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -2286,14 +2272,11 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -2312,14 +2295,11 @@
       <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2338,14 +2318,11 @@
       <c r="G9" s="8">
         <v>2</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -2364,14 +2341,11 @@
       <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -2390,35 +2364,33 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="H11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="L13" s="14" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="M13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
@@ -2435,37 +2407,40 @@
         <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
         <v>1</v>
       </c>
@@ -2475,44 +2450,47 @@
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="O15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="8">
         <v>2</v>
       </c>
@@ -2522,44 +2500,47 @@
       <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <v>3</v>
       </c>
@@ -2569,44 +2550,47 @@
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
         <v>4</v>
       </c>
@@ -2616,128 +2600,131 @@
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="3">
-        <v>2</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="5">
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="L19" s="3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M19" s="3">
         <v>3</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="O19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="L20" s="3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="L21" s="3">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M21" s="3">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="O21" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="5">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="L22" s="3">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M22" s="3">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="O22" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="5">
         <v>35000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" xr:uid="{2ECACCBB-15E5-4764-BC84-67B107FB2BA8}"/>
@@ -2751,27 +2738,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="B33:D33 D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
@@ -2781,18 +2767,17 @@
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
@@ -2809,13 +2794,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2831,14 +2813,11 @@
       <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2854,14 +2833,11 @@
       <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -2877,14 +2853,11 @@
       <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -2900,14 +2873,11 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -2923,14 +2893,11 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -2946,14 +2913,11 @@
       <c r="F9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -2969,14 +2933,11 @@
       <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -2992,30 +2953,28 @@
       <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="H13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
@@ -3026,28 +2985,31 @@
         <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
         <v>1</v>
       </c>
@@ -3057,29 +3019,32 @@
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="8">
         <v>2</v>
       </c>
@@ -3089,29 +3054,32 @@
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <v>3</v>
       </c>
@@ -3121,29 +3089,32 @@
       <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
         <v>4</v>
       </c>
@@ -3153,74 +3124,77 @@
       <c r="D18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="5">
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G19" s="3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H19" s="3">
         <v>5</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="G20" s="3">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="H20" s="3">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>20000</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
@@ -3230,26 +3204,26 @@
       <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="5">
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>1</v>
       </c>
@@ -3259,26 +3233,26 @@
       <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="5">
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>2</v>
       </c>
@@ -3289,7 +3263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>3</v>
       </c>
@@ -3300,21 +3274,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="13" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="H26" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>67</v>
       </c>
@@ -3340,14 +3314,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3366,14 +3340,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="10" t="s">
         <v>86</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3392,14 +3366,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="10" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3418,14 +3392,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3445,11 +3419,11 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
@@ -3509,12 +3483,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="H13:M13"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -2,44 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TugasAkhir\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A478E59-705A-4A14-83DE-D1B89352E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07734B-34A6-4313-ADDA-B46319521E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
     <sheet name="1NF" sheetId="2" r:id="rId2"/>
     <sheet name="2NF" sheetId="3" r:id="rId3"/>
     <sheet name="3NF" sheetId="4" r:id="rId4"/>
+    <sheet name="3NF Sementara" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="99">
   <si>
     <t>Table Type</t>
   </si>
@@ -333,6 +323,9 @@
   </si>
   <si>
     <t>MsLocation</t>
+  </si>
+  <si>
+    <t>TableTypeID (PK) (FK)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,7 +506,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,10 +524,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,16 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +546,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,28 +923,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1071,19 +1071,19 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1095,25 +1095,25 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>90</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="3">
@@ -1128,36 +1128,36 @@
       <c r="T5" s="5">
         <v>250000</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="11">
         <v>10</v>
       </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18">
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
         <v>8</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="21"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="19"/>
+      <c r="P6" s="12"/>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
@@ -1170,26 +1170,26 @@
       <c r="T6" s="5">
         <v>100000</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="3">
         <v>3</v>
       </c>
@@ -1202,52 +1202,52 @@
       <c r="T7" s="5">
         <v>80000</v>
       </c>
-      <c r="U7" s="18"/>
+      <c r="U7" s="11"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="11">
         <v>10</v>
       </c>
-      <c r="I8" s="18">
-        <v>2</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="11">
         <v>17</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="13" t="s">
         <v>91</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="3">
@@ -1262,28 +1262,28 @@
       <c r="T8" s="5">
         <v>100000</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="19"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="3">
         <v>28</v>
       </c>
@@ -1296,22 +1296,22 @@
       <c r="T9" s="5">
         <v>20000</v>
       </c>
-      <c r="U9" s="18"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
-        <v>4</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1323,25 +1323,25 @@
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="13" t="s">
         <v>92</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="3">
@@ -1356,16 +1356,16 @@
       <c r="T10" s="5">
         <v>30000</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1375,17 +1375,17 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="3">
         <v>4</v>
       </c>
@@ -1398,10 +1398,36 @@
       <c r="T11" s="5">
         <v>35000</v>
       </c>
-      <c r="U11" s="18"/>
+      <c r="U11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="U10:U11"/>
     <mergeCell ref="B8:B9"/>
@@ -1418,32 +1444,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2124,7 +2124,7 @@
   <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
   <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3482,13 +3482,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="H13:M13"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3499,4 +3499,785 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3768356-0385-4AF5-80CC-2E80F82CD67E}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="209.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>28</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="3">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="A30:C30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{CE63636E-697E-4CC9-9C1F-6298BBD0B897}"/>
+    <hyperlink ref="C26:C27" r:id="rId2" display="Taylor@gmail.com" xr:uid="{4F9F102B-09FC-499C-9A89-99A2B488F8D0}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{55AE7AE0-4C38-4BBC-A90D-42B4F7FA6B06}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{7959AE65-AA60-45BB-AC43-8F0C135FAB9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+</worksheet>
 </file>
--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A478E59-705A-4A14-83DE-D1B89352E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF7B57-6BD3-49D9-83A1-4BCE474501DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="104">
   <si>
     <t>Table Type</t>
   </si>
@@ -203,9 +203,6 @@
     <t>OrderID (PK) (FK)</t>
   </si>
   <si>
-    <t>MenuID (PK) (FK)</t>
-  </si>
-  <si>
     <t>TransactionHeader</t>
   </si>
   <si>
@@ -333,6 +330,27 @@
   </si>
   <si>
     <t>MsLocation</t>
+  </si>
+  <si>
+    <t>TransactionID (PK)</t>
+  </si>
+  <si>
+    <t>TransactionID (PK) (FK)</t>
+  </si>
+  <si>
+    <t>MsOrder</t>
+  </si>
+  <si>
+    <t>TransactionID (PK)(FK)</t>
+  </si>
+  <si>
+    <t>MenuID (PK)(FK)</t>
+  </si>
+  <si>
+    <t>Menu Name (PK)</t>
+  </si>
+  <si>
+    <t>OrderID(PK)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,6 +571,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2319B30-2675-4DDB-92EA-94A7A14FC08F}">
   <dimension ref="B2:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,7 +945,7 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -957,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -966,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>8</v>
@@ -981,16 +1002,16 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>5</v>
@@ -1019,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -1043,10 +1064,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>17</v>
@@ -1081,7 +1102,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>22</v>
@@ -1105,10 +1126,10 @@
         <v>29</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>30</v>
@@ -1215,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>22</v>
@@ -1239,10 +1260,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
@@ -1309,7 +1330,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>23</v>
@@ -1333,10 +1354,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>50</v>
@@ -1460,40 +1481,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C07B70A-99B4-47B8-881F-63A149D8C03F}">
   <dimension ref="B2:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1518,52 +1539,52 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>5</v>
@@ -1585,44 +1606,44 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
       <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
+      <c r="N4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>17</v>
@@ -1650,44 +1671,44 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
       <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2</v>
+      <c r="N5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>30</v>
@@ -1713,46 +1734,46 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>8</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="3">
-        <v>3</v>
+      <c r="N6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>31</v>
@@ -1778,46 +1799,46 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>10</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>8</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4</v>
+      <c r="N7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>32</v>
@@ -1843,46 +1864,46 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5</v>
+      <c r="N8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>40</v>
@@ -1908,46 +1929,46 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" s="3">
-        <v>6</v>
+      <c r="N9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>41</v>
@@ -1973,46 +1994,46 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="3">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="3">
-        <v>7</v>
+      <c r="N10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>50</v>
@@ -2038,46 +2059,46 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
       <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="3">
-        <v>8</v>
+      <c r="N11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>51</v>
@@ -2107,13 +2128,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{FAE17EEC-4FA7-41BD-833D-3B7A31D9F98C}"/>
-    <hyperlink ref="M5" r:id="rId2" xr:uid="{52448410-DFB0-4AD5-89F5-739B2DB20881}"/>
-    <hyperlink ref="M6:M8" r:id="rId3" display="Taylor@gmail.com" xr:uid="{11DD8D3C-F9D5-4572-A083-B049F6386AF9}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{31C76D45-8D1A-48F8-A2F9-FD25F3103992}"/>
-    <hyperlink ref="M9" r:id="rId5" xr:uid="{1734B4BE-68E5-461C-B08D-B5DDB2069E57}"/>
-    <hyperlink ref="M10" r:id="rId6" xr:uid="{EA43EFC8-BD7B-48D7-B1C1-746F53B0EED0}"/>
-    <hyperlink ref="M11" r:id="rId7" xr:uid="{749E66FD-F78C-439A-91DD-E36982DA83D8}"/>
+    <hyperlink ref="N4" r:id="rId1" xr:uid="{FAE17EEC-4FA7-41BD-833D-3B7A31D9F98C}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{52448410-DFB0-4AD5-89F5-739B2DB20881}"/>
+    <hyperlink ref="N6:N8" r:id="rId3" display="Taylor@gmail.com" xr:uid="{11DD8D3C-F9D5-4572-A083-B049F6386AF9}"/>
+    <hyperlink ref="N8" r:id="rId4" xr:uid="{31C76D45-8D1A-48F8-A2F9-FD25F3103992}"/>
+    <hyperlink ref="N9" r:id="rId5" xr:uid="{1734B4BE-68E5-461C-B08D-B5DDB2069E57}"/>
+    <hyperlink ref="N10" r:id="rId6" xr:uid="{EA43EFC8-BD7B-48D7-B1C1-746F53B0EED0}"/>
+    <hyperlink ref="N11" r:id="rId7" xr:uid="{749E66FD-F78C-439A-91DD-E36982DA83D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2121,36 +2142,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D07283-676B-4F48-9B92-322057909C13}">
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="174.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
@@ -2161,216 +2185,216 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -2381,356 +2405,448 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="M13" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="3">
+        <v>4</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="3">
+        <v>10</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="3">
         <v>10</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="O20" s="3">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="M21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="3">
-        <v>2</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="5">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R19" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="M20" s="3">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="M21" s="3">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="M22" s="3">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="5">
-        <v>35000</v>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="B13:K13"/>
+  <mergeCells count="2">
+    <mergeCell ref="B13:P13"/>
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{2ECACCBB-15E5-4764-BC84-67B107FB2BA8}"/>
-    <hyperlink ref="E16:E17" r:id="rId2" display="Taylor@gmail.com" xr:uid="{BC394F64-8800-4617-9D84-076EF3E1C2C7}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{9F7CC203-5CCD-4774-B7B2-F62F4E83FEEF}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{6BB1ABDD-F12A-4A59-901A-7DE9CC4D0010}"/>
+    <hyperlink ref="I15" r:id="rId1" xr:uid="{590A50CA-D78A-4A88-9712-078761019CF8}"/>
+    <hyperlink ref="I16" r:id="rId2" xr:uid="{0BEDA21C-3FF0-4AD9-9201-6BEE4944CEA9}"/>
+    <hyperlink ref="I17:I19" r:id="rId3" display="Taylor@gmail.com" xr:uid="{5B8C93D2-93A6-4EBC-AA51-1C6B481FAC9D}"/>
+    <hyperlink ref="I19" r:id="rId4" xr:uid="{122690CB-9CA8-427A-8181-328DB7745CFB}"/>
+    <hyperlink ref="I20" r:id="rId5" xr:uid="{C5EBD810-33F6-4974-A95C-27744432C9B5}"/>
+    <hyperlink ref="I21" r:id="rId6" xr:uid="{A9D74436-7612-489C-9E39-4D25A78A44E6}"/>
+    <hyperlink ref="I22" r:id="rId7" xr:uid="{A0490870-5FEE-4994-988B-BF86C0675BB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2738,25 +2854,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="178.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
@@ -2767,37 +2884,51 @@
     <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="F3" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2807,17 +2938,26 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2827,19 +2967,28 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="5">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -2847,19 +2996,28 @@
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -2867,19 +3025,28 @@
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -2887,19 +3054,28 @@
       <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
@@ -2907,19 +3083,28 @@
       <c r="D9" s="3">
         <v>28</v>
       </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -2927,19 +3112,28 @@
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F10" s="3">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>8</v>
@@ -2947,555 +3141,583 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="23"/>
+      <c r="I13" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="E14" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>30</v>
+      <c r="K15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="5">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="8">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="3">
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
         <v>3</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="H20" s="3">
-        <v>6</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="3">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="5">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+      <c r="C42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="H26" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="8">
-        <v>3</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="8">
-        <v>4</v>
-      </c>
-      <c r="H31" s="8">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="3">
+        <v>4</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
-        <v>3</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{0EC9790E-05BB-4111-B668-943DB446C783}"/>
-    <hyperlink ref="D29:D30" r:id="rId2" display="Taylor@gmail.com" xr:uid="{831E6A7F-2F95-4C6E-857A-80F4D4F1A37D}"/>
-    <hyperlink ref="D30" r:id="rId3" xr:uid="{2F0519A4-BCC7-48D9-B1AC-4713D60DE0EF}"/>
-    <hyperlink ref="D31" r:id="rId4" xr:uid="{D3ABD9C6-B62F-451C-926F-40ACE02FBE7A}"/>
+    <hyperlink ref="D40" r:id="rId1" xr:uid="{0EC9790E-05BB-4111-B668-943DB446C783}"/>
+    <hyperlink ref="D41:D42" r:id="rId2" display="Taylor@gmail.com" xr:uid="{831E6A7F-2F95-4C6E-857A-80F4D4F1A37D}"/>
+    <hyperlink ref="D42" r:id="rId3" xr:uid="{2F0519A4-BCC7-48D9-B1AC-4713D60DE0EF}"/>
+    <hyperlink ref="D43" r:id="rId4" xr:uid="{D3ABD9C6-B62F-451C-926F-40ACE02FBE7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TugasAkhir\TugasAkhir_Restaurant_OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07734B-34A6-4313-ADDA-B46319521E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB5AB6-6B00-47AE-A1F8-3C2E9FBF5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
     <sheet name="1NF" sheetId="2" r:id="rId2"/>
     <sheet name="2NF" sheetId="3" r:id="rId3"/>
-    <sheet name="3NF" sheetId="4" r:id="rId4"/>
-    <sheet name="3NF Sementara" sheetId="5" r:id="rId5"/>
+    <sheet name="3NF" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="96">
   <si>
     <t>Table Type</t>
   </si>
@@ -259,9 +258,6 @@
     <t>LI004</t>
   </si>
   <si>
-    <t>LocationID (PK)</t>
-  </si>
-  <si>
     <t>Restaurant Invoice</t>
   </si>
   <si>
@@ -320,12 +316,6 @@
   </si>
   <si>
     <t>MsEmployee</t>
-  </si>
-  <si>
-    <t>MsLocation</t>
-  </si>
-  <si>
-    <t>TableTypeID (PK) (FK)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,16 +496,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,10 +508,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +520,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,11 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,28 +912,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -957,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -981,10 +970,10 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>3</v>
@@ -1019,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -1043,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>17</v>
@@ -1071,19 +1060,19 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1095,25 +1084,25 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="19" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>90</v>
+      <c r="M5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="20" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="3">
@@ -1128,36 +1117,36 @@
       <c r="T5" s="5">
         <v>250000</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="19">
         <v>10</v>
       </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19">
         <v>8</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="14"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="12"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
@@ -1170,26 +1159,26 @@
       <c r="T6" s="5">
         <v>100000</v>
       </c>
-      <c r="U6" s="11"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="12"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="3">
         <v>3</v>
       </c>
@@ -1202,52 +1191,52 @@
       <c r="T7" s="5">
         <v>80000</v>
       </c>
-      <c r="U7" s="11"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="11">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="19">
         <v>10</v>
       </c>
-      <c r="I8" s="11">
-        <v>2</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="19">
         <v>17</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>91</v>
+      <c r="M8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="3">
@@ -1262,28 +1251,28 @@
       <c r="T8" s="5">
         <v>100000</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="12"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="3">
         <v>28</v>
       </c>
@@ -1296,22 +1285,22 @@
       <c r="T9" s="5">
         <v>20000</v>
       </c>
-      <c r="U9" s="11"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="19">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1323,25 +1312,25 @@
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="19" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>92</v>
+      <c r="M10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="20" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="3">
@@ -1356,16 +1345,16 @@
       <c r="T10" s="5">
         <v>30000</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1375,17 +1364,17 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="15"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="12"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="3">
         <v>4</v>
       </c>
@@ -1398,10 +1387,36 @@
       <c r="T11" s="5">
         <v>35000</v>
       </c>
-      <c r="U11" s="11"/>
+      <c r="U11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="M10:M11"/>
@@ -1418,32 +1433,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1492,29 +1481,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1527,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1551,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>54</v>
@@ -1592,7 +1581,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -1616,10 +1605,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -1657,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1681,10 +1670,10 @@
         <v>29</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -1722,7 +1711,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
@@ -1746,10 +1735,10 @@
         <v>29</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -1787,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
@@ -1811,10 +1800,10 @@
         <v>29</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O7" s="3">
         <v>4</v>
@@ -1852,7 +1841,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
@@ -1876,10 +1865,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O8" s="3">
         <v>5</v>
@@ -1917,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -1941,10 +1930,10 @@
         <v>39</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" s="3">
         <v>6</v>
@@ -1982,7 +1971,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -2006,10 +1995,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="3">
         <v>7</v>
@@ -2047,7 +2036,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>23</v>
@@ -2071,10 +2060,10 @@
         <v>49</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="3">
         <v>8</v>
@@ -2151,15 +2140,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2369,42 +2358,42 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="M13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>26</v>
@@ -2445,16 +2434,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>27</v>
@@ -2495,16 +2484,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>28</v>
@@ -2545,16 +2534,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>38</v>
@@ -2595,16 +2584,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>48</v>
@@ -2737,776 +2726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8BA7B-1052-4466-9279-73517970B9C2}">
-  <dimension ref="B2:M38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="180.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="H13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="5">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="H20" s="3">
-        <v>6</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="3">
-        <v>7</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="5">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="5">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="H26" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="8">
-        <v>3</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="8">
-        <v>4</v>
-      </c>
-      <c r="H31" s="8">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
-        <v>3</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B13:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{0EC9790E-05BB-4111-B668-943DB446C783}"/>
-    <hyperlink ref="D29:D30" r:id="rId2" display="Taylor@gmail.com" xr:uid="{831E6A7F-2F95-4C6E-857A-80F4D4F1A37D}"/>
-    <hyperlink ref="D30" r:id="rId3" xr:uid="{2F0519A4-BCC7-48D9-B1AC-4713D60DE0EF}"/>
-    <hyperlink ref="D31" r:id="rId4" xr:uid="{D3ABD9C6-B62F-451C-926F-40ACE02FBE7A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3768356-0385-4AF5-80CC-2E80F82CD67E}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3525,26 +2749,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>98</v>
+      <c r="B2" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>68</v>
@@ -3570,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>58</v>
@@ -3593,10 +2817,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>59</v>
@@ -3611,50 +2835,50 @@
         <v>1</v>
       </c>
       <c r="H4" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -3663,133 +2887,34 @@
         <v>1</v>
       </c>
       <c r="H6" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -3801,7 +2926,7 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
         <v>63</v>
       </c>
@@ -3831,7 +2956,7 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -3861,7 +2986,7 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="3">
         <v>2</v>
       </c>
@@ -3891,7 +3016,7 @@
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="3">
         <v>3</v>
       </c>
@@ -3921,7 +3046,7 @@
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="3">
         <v>4</v>
       </c>
@@ -3951,7 +3076,7 @@
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="3">
         <v>5</v>
       </c>
@@ -3981,7 +3106,7 @@
       <c r="C19" s="3">
         <v>28</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="3">
         <v>6</v>
       </c>
@@ -4011,7 +3136,7 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="3">
         <v>7</v>
       </c>
@@ -4041,7 +3166,7 @@
       <c r="C21" s="3">
         <v>4</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="3">
         <v>8</v>
       </c>
@@ -4062,19 +3187,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
@@ -4084,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>69</v>
@@ -4111,10 +3236,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -4138,10 +3263,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
@@ -4165,10 +3290,10 @@
         <v>39</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="8">
         <v>3</v>
@@ -4192,10 +3317,10 @@
         <v>49</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="8">
         <v>4</v>
@@ -4212,11 +3337,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
@@ -4264,12 +3389,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="E12:J12"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" xr:uid="{CE63636E-697E-4CC9-9C1F-6298BBD0B897}"/>

--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick\Documents\Kuliah\OOP\TugasAkhir_Restaurant_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB5AB6-6B00-47AE-A1F8-3C2E9FBF5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7216F-D9B6-4F86-81D7-31943D07147E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{BAA0767E-DF80-4FFD-B866-E03C755585BA}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,7 +499,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,10 +517,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,16 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,9 +539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,28 +909,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1060,19 +1057,19 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1084,25 +1081,25 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="3">
@@ -1117,36 +1114,36 @@
       <c r="T5" s="5">
         <v>250000</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="12">
         <v>10</v>
       </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19">
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
         <v>8</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="22"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="20"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="3">
         <v>4</v>
       </c>
@@ -1159,26 +1156,26 @@
       <c r="T6" s="5">
         <v>100000</v>
       </c>
-      <c r="U6" s="19"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="20"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="3">
         <v>3</v>
       </c>
@@ -1191,52 +1188,52 @@
       <c r="T7" s="5">
         <v>80000</v>
       </c>
-      <c r="U7" s="19"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="19">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="12">
         <v>10</v>
       </c>
-      <c r="I8" s="19">
-        <v>2</v>
-      </c>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="12">
         <v>17</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="14" t="s">
         <v>90</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="13" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="3">
@@ -1251,28 +1248,28 @@
       <c r="T8" s="5">
         <v>100000</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="20"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="3">
         <v>28</v>
       </c>
@@ -1285,22 +1282,22 @@
       <c r="T9" s="5">
         <v>20000</v>
       </c>
-      <c r="U9" s="19"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="19">
-        <v>4</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="12">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1312,25 +1309,25 @@
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="14" t="s">
         <v>91</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="Q10" s="3">
@@ -1345,16 +1342,16 @@
       <c r="T10" s="5">
         <v>30000</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1364,17 +1361,17 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="3">
         <v>4</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="20"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="3">
         <v>4</v>
       </c>
@@ -1387,10 +1384,36 @@
       <c r="T11" s="5">
         <v>35000</v>
       </c>
-      <c r="U11" s="19"/>
+      <c r="U11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="U10:U11"/>
     <mergeCell ref="B8:B9"/>
@@ -1407,32 +1430,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2727,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3768356-0385-4AF5-80CC-2E80F82CD67E}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2764,7 +2761,7 @@
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2890,141 +2887,251 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="5">
+        <v>250000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="5">
+        <v>100000</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>4</v>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="5">
+        <v>80000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J15" s="5">
-        <v>250000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>18</v>
@@ -3033,28 +3140,28 @@
         <v>18</v>
       </c>
       <c r="J16" s="5">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>18</v>
@@ -3063,344 +3170,224 @@
         <v>18</v>
       </c>
       <c r="J17" s="5">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="5">
-        <v>100000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="5">
-        <v>30000</v>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="5">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>72</v>
+      <c r="I24" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="8">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8">
-        <v>2</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A26" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>3</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="8">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8">
-        <v>3</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>74</v>
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="8">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8">
-        <v>4</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C30" s="8">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:J8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{CE63636E-697E-4CC9-9C1F-6298BBD0B897}"/>
-    <hyperlink ref="C26:C27" r:id="rId2" display="Taylor@gmail.com" xr:uid="{4F9F102B-09FC-499C-9A89-99A2B488F8D0}"/>
-    <hyperlink ref="C27" r:id="rId3" xr:uid="{55AE7AE0-4C38-4BBC-A90D-42B4F7FA6B06}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{7959AE65-AA60-45BB-AC43-8F0C135FAB9E}"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{CE63636E-697E-4CC9-9C1F-6298BBD0B897}"/>
+    <hyperlink ref="C22:C23" r:id="rId2" display="Taylor@gmail.com" xr:uid="{4F9F102B-09FC-499C-9A89-99A2B488F8D0}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{55AE7AE0-4C38-4BBC-A90D-42B4F7FA6B06}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{7959AE65-AA60-45BB-AC43-8F0C135FAB9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
